--- a/populate/data.xlsx
+++ b/populate/data.xlsx
@@ -706,10 +706,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,16 +1022,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49" style="4" customWidth="1"/>
+    <col min="4" max="4" width="81.5703125" customWidth="1"/>
     <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -1042,7 +1048,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1070,14 +1076,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
@@ -1102,14 +1108,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
@@ -1134,14 +1140,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D4" t="s">
@@ -1169,14 +1175,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
@@ -1198,14 +1204,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
@@ -1230,14 +1236,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D7" t="s">
@@ -1262,14 +1268,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D8" t="s">
@@ -1294,14 +1300,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
@@ -1326,14 +1332,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D10" t="s">
@@ -1358,11 +1364,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D11" t="s">
@@ -1387,14 +1393,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F12" t="s">
@@ -1416,14 +1422,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F13" t="s">
@@ -1445,11 +1451,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D14" t="s">
@@ -1474,11 +1480,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D15" t="s">
@@ -1526,14 +1532,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F17" t="s">
@@ -1555,14 +1561,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D18" t="s">
@@ -1659,14 +1665,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D22" t="s">
@@ -1691,14 +1697,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>117</v>
       </c>
       <c r="B23" t="s">
         <v>118</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F23" t="s">
@@ -1720,11 +1726,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>121</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D24" t="s">
@@ -1749,14 +1755,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>127</v>
       </c>
       <c r="B25" t="s">
         <v>128</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>129</v>
       </c>
       <c r="F25" t="s">
@@ -1778,14 +1784,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>133</v>
       </c>
       <c r="B26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>134</v>
       </c>
       <c r="F26" t="s">
@@ -1879,11 +1885,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>145</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D30" t="s">
@@ -1908,11 +1914,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>150</v>
       </c>
       <c r="F31" s="1">
@@ -1957,14 +1963,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>156</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>157</v>
       </c>
       <c r="D33" t="s">
@@ -2104,14 +2110,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>171</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F39" t="s">
@@ -2242,11 +2248,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>186</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D45" t="s">
@@ -2274,14 +2280,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>191</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D46" t="s">
@@ -2306,14 +2312,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>196</v>
       </c>
       <c r="B47" t="s">
         <v>197</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>198</v>
       </c>
       <c r="F47" t="s">
@@ -2335,11 +2341,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>201</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E48" t="s">
@@ -2372,11 +2378,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>208</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D50" t="s">
@@ -2390,7 +2396,7 @@
       <c r="A51" t="s">
         <v>211</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D51" t="s">

--- a/populate/data.xlsx
+++ b/populate/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="293">
   <si>
     <t>Názov produktu</t>
   </si>
@@ -475,9 +475,6 @@
     <t>0,15</t>
   </si>
   <si>
-    <t>kuracie prsia</t>
-  </si>
-  <si>
     <t>0,38</t>
   </si>
   <si>
@@ -643,35 +640,312 @@
     <t>Krutóny</t>
   </si>
   <si>
-    <t>pšeničná múka, palmový olej, ochucujúca zmes (cukor, cibuľa, soľ, údená soľ, kvasnicový extrakt, aróma, regulátor kyslosti (kyselina citrónová), farbivo (paprikový extrakt), soľ, kvasnice)</t>
-  </si>
-  <si>
     <t>lepok, mlieko, horčica</t>
   </si>
   <si>
     <t>Kuskus</t>
   </si>
   <si>
-    <t>naparená krupica z pšenice tvrdej, sušená</t>
-  </si>
-  <si>
     <t>arašidy, orechy, sezam</t>
   </si>
   <si>
     <t>glutén, arašidy, orechy, sezam</t>
   </si>
   <si>
-    <t>kurací prsný rezeň 60%, panáda (PŠENIČNÁ múka, jedlá soľ), dextróza, korenie, cukor, droždie, farbivo (extrakt z papriky), pitná voda, PŠENIČNÁ múka, slnečnicový a repkový olej v rôznom pomere, jedlá soľ, modifikovaný škrob, glukózový sirup, hydrolyzované hydinové bielkoviny, aróma, stabilizátory (difosforečnany, dextróza, citrón), antioxidant (askorban sodný)</t>
-  </si>
-  <si>
-    <t>PŠENIČNÁ múka, pitná voda, pekárska zmes (ľan, OVSENÉ vločky, zemiaková kaša, sušená SRVÁTKA, OVSENÁ múka, sušený CMAR, slnečnica, PŠENIČNÁ múka celozrnná, cukor, JAČMENNÁ sladová múka, emulgátory (E471, E472e), repkový olej, múku upravujúca látka: E300, SEZAM, regulátory kyslosti (E330, E270, E334), repkový olej), droždie, ľan, PŠENIČNÉ otruby, jedlá soľ s jódom, repkový olej, PŠENIČNÝ LEPOK, múku upravujúca látka: E920, RAŽNÁ múka.</t>
+    <r>
+      <t>kurací prsný rezeň 60%, panáda (PŠENIČNÁ múka, jedlá soľ), dextróza, korenie, cukor, droždie, farbivo (extrakt z papriky), pitná voda, PŠENIČNÁ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> múka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, slnečnicový a repkový olej v rôznom pomere, jedlá soľ, modifikovaný škrob, glukózový sirup, hydrolyzované hydinové bielkoviny, aróma, stabilizátory (difosforečnany, dextróza, citrón), antioxidant (askorban sodný)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PŠENIČNÁ múka, pitná voda, pekárska zmes (ľan, OVSENÉ vločky, zemiaková kaša, sušená SRVÁTKA, OVSENÁ múka, sušený CMAR, slnečnica, PŠENIČNÁ</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>múka celozrnná, cukor, JAČMENNÁ sladová múka, emulgátory (E471, E472e), repkový olej, múku upravujúca látka: E300, SEZAM, regulátory kyslosti (E330, E270, E334), repkový olej), droždie, ľan, PŠENIČNÉ otruby, jedlá soľ s jódom, repkový olej, PŠENIČNÝ LEPOK, múku upravujúca látka: E920, RAŽNÁ múka.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kuracie prsia</t>
+  </si>
+  <si>
+    <t>kuracie prsia, grilovacie korenie (morská soľ, trstinový cukor, sušené paradajky, zemikový škrob, cibuľa sladká, paprika, oregano, cesnak, petržlenová vňať, slnečnicvý olej, tymián, rozmarín, koriander, horčica, aróma, protihrudkujúca látka (oxid kremičitý), zmes bylín, zmes korenia, škorica, paprikový extrakt. )</t>
+  </si>
+  <si>
+    <t>horčica, lepok, vajce, sója, mlieko, zeler, sézam, SO2</t>
+  </si>
+  <si>
+    <t>DAC S.P.A. VIA Marconi, 15 - 25020 FLERO (BS) Italia</t>
+  </si>
+  <si>
+    <t>13,95</t>
+  </si>
+  <si>
+    <t>2,09</t>
+  </si>
+  <si>
+    <t>23,53</t>
+  </si>
+  <si>
+    <t>2,18</t>
+  </si>
+  <si>
+    <t>ATC-JR s.r.o., Vsetinska cesta 766, 020 01 Púchov, Slovenská Republika</t>
+  </si>
+  <si>
+    <t>pšeničná múka, palmový olej, ochucujúca zmes (cukor, cibuľa, soľ, údená soľ, kvasnicový extrakt, aróma, regulátor kyslosti (kyselina citrónová), farbivo (paprikový extrakt), soľ, kvasnice).</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>ENCINGER SK s.r.o., Jadranská 13, 841 01 Bratislava, Slovenská Republika</t>
+  </si>
+  <si>
+    <t>naparená krupica z pšenice tvrdej, sušená.</t>
+  </si>
+  <si>
+    <t>Jogurt biely</t>
+  </si>
+  <si>
+    <t>Sabi</t>
+  </si>
+  <si>
+    <t>mlieko, smotana, sušené mlieko, mliekarenské kultúry (Lactobacillus delbrueckii subsp. bulgaricus, Streptococcus thermophilus a Bifidobacterium lactis).</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>Syr parmezán</t>
+  </si>
+  <si>
+    <t>Brazzale SpA, Via Pasubio 2, 36010 Zané (VI) Taliansko</t>
+  </si>
+  <si>
+    <t>mlieko, jedlá soľ, syridlo rastlinného pôvodu, konzervačná látka (lyzozým) - vaječná bielkovina.</t>
+  </si>
+  <si>
+    <t>Grilovacie korenie</t>
+  </si>
+  <si>
+    <t>morská soľ, trstinový cukor, sušené paradajky, zemiakový škrob, cibuľa sladká, paprika, oregano, cesnak, petržlenová vňať, slnečnicvý olej, tymián, rozmarín, koriander, horčica, aróma, protihrudkujúca látka (oxid kremičitý), zmes bylín, zmes korenia, škorica, paprikový extrakt.</t>
+  </si>
+  <si>
+    <t>Caesar Dressing</t>
+  </si>
+  <si>
+    <t>Bidvest Slovakia s.r.o., Piešťanská 2321/71, Nové Mesto nad Váhom 951 01, Slovenská Republika</t>
+  </si>
+  <si>
+    <t>pitná voda, 23% jogurt (mlieko, mliečna bielkovina, jogurtová a probiotická kultúra), 20% repkový olej, kvasný ocot liehový, cukor, 2% parmezán, jedlá soľ, sušené odtučnené mlieko, fermentová sója, paradajkový pretlak, jablčna šťava, zahusťovadlá (xantánová guma, pektíny), regulátor kyslosti (kyselina citrónová), zmes bylín, maltodextrín, aróma, konzervačné látky (kyselina benzoová, kyselina sorbová), zmes korenín.</t>
+  </si>
+  <si>
+    <t>mlieko, sója</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>Arašidy lúpané, pražené</t>
+  </si>
+  <si>
+    <t>Intersnack Slovensko a.s.</t>
+  </si>
+  <si>
+    <t>arašidy (97,5 %), palmový olej.</t>
+  </si>
+  <si>
+    <t>orechy</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>25,6</t>
+  </si>
+  <si>
+    <t>Semolinove cestoviny</t>
+  </si>
+  <si>
+    <t>Colussi S.o.A. via Giovanni Spadolini 5, 20141 Milano</t>
+  </si>
+  <si>
+    <t>semolina - múka z tvrdozrnej pšenice.</t>
+  </si>
+  <si>
+    <t>0,0005</t>
+  </si>
+  <si>
+    <t>Balsamico</t>
+  </si>
+  <si>
+    <t>Bidvest Czech Republic s.r.o., V Ružovem údolí 553, 278 01 Kalupy</t>
+  </si>
+  <si>
+    <t>koncentrovaný hrtoznový mušt, balzamikový ocot z Modeny 20% (vinný ocot, koncentrovaný hroznový mušt, farbivo (karamel E150d), modifikovaný kukuričný škrob, antioxidant (E224), disiričitan draselný.</t>
+  </si>
+  <si>
+    <t>Feta slaný syr</t>
+  </si>
+  <si>
+    <t>Orava Milk Záujmové Združenie 02701 Leštiny</t>
+  </si>
+  <si>
+    <t>mlieko, mliekarenská kultúra, syridlo, jedlá soľ.</t>
+  </si>
+  <si>
+    <t>17,77</t>
+  </si>
+  <si>
+    <t>3,24</t>
+  </si>
+  <si>
+    <t>18,41</t>
+  </si>
+  <si>
+    <t>4,17</t>
+  </si>
+  <si>
+    <t>Ľadový šalát</t>
+  </si>
+  <si>
+    <t>Cvikla</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>Granátové jablko</t>
+  </si>
+  <si>
+    <t>Rukola</t>
+  </si>
+  <si>
+    <t>Bazalkové pesto</t>
+  </si>
+  <si>
+    <t>bazalka, slnečnicový olej, arašidy (arašidy (97,5 %), palmový olej), soľ</t>
+  </si>
+  <si>
+    <t>45,9</t>
+  </si>
+  <si>
+    <t>Bazalka</t>
+  </si>
+  <si>
+    <t>0,06</t>
+  </si>
+  <si>
+    <t>0,03</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>Baklažán</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>Mäta čerstvá</t>
+  </si>
+  <si>
+    <t>Ananás</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>14,7</t>
+  </si>
+  <si>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>Melón</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>Hrozno</t>
+  </si>
+  <si>
+    <t>Physalis</t>
+  </si>
+  <si>
+    <t>0,14</t>
+  </si>
+  <si>
+    <t>1,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,8 +953,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,12 +1001,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC2D69B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -702,18 +1032,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,17 +1396,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D51"/>
+    <sheetView tabSelected="1" topLeftCell="C59" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="4" customWidth="1"/>
+    <col min="3" max="3" width="49" style="1" customWidth="1"/>
     <col min="4" max="4" width="81.5703125" customWidth="1"/>
     <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -1041,14 +1417,14 @@
     <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1076,1351 +1452,2171 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="4"/>
+      <c r="F2" s="6">
         <v>26</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="315" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="4"/>
+      <c r="F7" s="6">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="4"/>
+      <c r="F8" s="6">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="4"/>
+      <c r="F10" s="6">
         <v>86</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>44</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>54</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>10</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="8">
         <v>47</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F16" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>38</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="6">
         <v>10</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F19" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F20" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>1</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="4"/>
+      <c r="F22" s="6">
         <v>11</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6">
         <v>4</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <v>18</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="6">
         <v>12</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <v>3</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F26" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F27" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F28" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F29" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <v>55</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F30">
+      <c r="E30" s="4"/>
+      <c r="F30" s="6">
         <v>31</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="6">
         <v>24</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="1">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="9">
         <v>8434</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="9">
         <v>1286</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="9">
         <v>34386</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="9">
         <v>1075</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>126</v>
-      </c>
-      <c r="K32" t="s">
+    </row>
+    <row r="33" spans="1:11" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6">
+        <v>39</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="10">
+        <v>92</v>
+      </c>
+      <c r="G35" s="10">
+        <v>10</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>2</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="10">
+        <v>5</v>
+      </c>
+      <c r="I37" s="10">
+        <v>3</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>1</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43" s="10">
+        <v>6</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="6">
+        <v>34</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J48" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F33">
+      <c r="K48" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="6">
+        <v>41</v>
+      </c>
+      <c r="G50" s="6">
+        <v>19</v>
+      </c>
+      <c r="H50" s="6">
+        <v>49</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="6">
+        <v>70</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51" s="6">
+        <v>12</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="6">
+        <v>9</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="6">
+        <v>28</v>
+      </c>
+      <c r="G53" s="6">
+        <v>20</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>31</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="6">
+        <v>40</v>
+      </c>
+      <c r="I54" s="6">
+        <v>21</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K54" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="6">
+        <v>22</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" s="6">
+        <v>7</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F56" s="6">
+        <v>50</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I56" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="6">
+        <v>15</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="6">
+        <v>72</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J57" s="6">
+        <v>13</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>54</v>
+      </c>
+      <c r="I58" s="6">
+        <v>50</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="6">
+        <v>25</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>17</v>
+      </c>
+      <c r="I62" s="6">
+        <v>16</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="G67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="6">
+        <v>15</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <v>9</v>
+      </c>
+      <c r="I70" s="6">
+        <v>8</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H34" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" t="s">
-        <v>163</v>
-      </c>
-      <c r="J34" t="s">
-        <v>164</v>
-      </c>
-      <c r="K34">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35">
-        <v>92</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>167</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G37" t="s">
-        <v>170</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37" t="s">
-        <v>93</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="G71" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="K71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I72" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F39" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" t="s">
-        <v>175</v>
-      </c>
-      <c r="J39" t="s">
-        <v>84</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s">
-        <v>139</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s">
-        <v>177</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" t="s">
-        <v>179</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" t="s">
-        <v>100</v>
-      </c>
-      <c r="I43" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43">
-        <v>6</v>
-      </c>
-      <c r="K43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" t="s">
-        <v>183</v>
-      </c>
-      <c r="F44" t="s">
-        <v>179</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>184</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>185</v>
-      </c>
-      <c r="K44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" t="s">
-        <v>179</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="J72" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73" s="6">
+        <v>9</v>
+      </c>
+      <c r="I73" s="6">
+        <v>9</v>
+      </c>
+      <c r="J73" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I45" t="s">
-        <v>93</v>
-      </c>
-      <c r="J45" t="s">
-        <v>190</v>
-      </c>
-      <c r="K45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46">
-        <v>34</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" t="s">
-        <v>194</v>
-      </c>
-      <c r="I46" t="s">
-        <v>195</v>
-      </c>
-      <c r="J46" t="s">
-        <v>101</v>
-      </c>
-      <c r="K46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>196</v>
-      </c>
-      <c r="B47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" t="s">
-        <v>200</v>
-      </c>
-      <c r="I47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" t="s">
-        <v>120</v>
-      </c>
-      <c r="K47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" t="s">
-        <v>205</v>
-      </c>
-      <c r="F49" t="s">
-        <v>206</v>
-      </c>
-      <c r="G49" t="s">
-        <v>207</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" t="s">
-        <v>213</v>
-      </c>
-      <c r="E51" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" t="s">
-        <v>190</v>
-      </c>
-      <c r="G51" t="s">
-        <v>59</v>
-      </c>
-      <c r="H51">
-        <v>70</v>
-      </c>
-      <c r="I51" t="s">
-        <v>89</v>
-      </c>
-      <c r="J51">
-        <v>12</v>
-      </c>
-      <c r="K51">
+      <c r="K73" s="6">
         <v>0</v>
       </c>
     </row>
